--- a/02-autodock-vina/16-work/results.xlsx
+++ b/02-autodock-vina/16-work/results.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">The crystal structure of COVID-19 main protease</t>
   </si>
@@ -53,6 +53,24 @@
   </si>
   <si>
     <t xml:space="preserve">Kaempferol-3-O-arabinoside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keampherol-3-O-ramnoside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myricetin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pentagalloylglucoside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protocatechuic-acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quercetin-3-O-galactose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shikimic-acid</t>
   </si>
 </sst>
 </file>
@@ -62,7 +80,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -85,24 +103,16 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="11"/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -155,7 +165,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -164,23 +174,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -196,23 +198,129 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:E9"/>
+  <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="35.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="32.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="32.26"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -220,92 +328,180 @@
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="5" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>-8.067</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="5" t="s">
+      <c r="D2" s="2" t="n">
+        <v>-10.47</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>-7.694</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="5" t="s">
+      <c r="D3" s="2" t="n">
+        <v>-8.518</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>-5.741</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="5" t="s">
+      <c r="D4" s="2" t="n">
+        <v>-6.878</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>-7.246</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="5" t="s">
+      <c r="D5" s="2" t="n">
+        <v>-8.284</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>-5.342</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="5" t="s">
+      <c r="D6" s="2" t="n">
+        <v>-6.43</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>-8.568</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="5" t="s">
+      <c r="D7" s="2" t="n">
+        <v>-10.95</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>-9.119</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="5" t="s">
+      <c r="D8" s="2" t="n">
+        <v>-11.29</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>-8.088</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="D9" s="2" t="n">
+        <v>-8.209</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>-7.967</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>-8.39</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>-6.653</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>-8.992</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>-8.385</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>-9.347</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>-5.302</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>-6.347</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>-7.462</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>-8.766</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>-5.21</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>-6.34</v>
+      </c>
+      <c r="E15" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
